--- a/Project5327_S. R. Cole(2019).xlsx
+++ b/Project5327_S. R. Cole(2019).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92263BA2-DF45-9740-8C75-EBFB85EF083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C4167A-3FB8-42BF-ABE0-8307108AD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project5327" sheetId="1" r:id="rId1"/>
@@ -464,13 +464,13 @@
     <t>Neomorphic</t>
   </si>
   <si>
-    <t>NT2;0=0-;1=11;2=;12</t>
-  </si>
-  <si>
     <t>NT2;1=11;2=12;3=0-</t>
   </si>
   <si>
     <t>NT?;0=0-;1=11;2=12;3=13</t>
+  </si>
+  <si>
+    <t>NT2;0=0-;1=11;2=12</t>
   </si>
 </sst>
 </file>
@@ -918,16 +918,16 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -960,7 +960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -971,7 +971,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -982,7 +982,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -993,7 +993,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1114,15 +1114,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1155,15 +1155,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1218,15 +1218,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1248,15 +1248,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
